--- a/inferences/jesuita-entrada-Coimbra-cargos_tarefas.xlsx
+++ b/inferences/jesuita-entrada-Coimbra-cargos_tarefas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cargos_tarefas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cargos_tarefas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,17 +2388,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-francisco-pacheco</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>Francisco Pacheco</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Provincial do Japão e da China</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2420,17 +2420,17 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pacheco</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Francisco Pacheco</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Provincial do Japão e da China</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2772,17 +2772,17 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Provincial do Japão e da China</t>
+          <t>Visitador das províncias de Goa e do Malabar</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Visitador das províncias de Goa e do Malabar</t>
+          <t>Visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2836,17 +2836,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Visitador do Japão e da China</t>
+          <t>Provincial do Japão e da China</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4340,17 +4340,17 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>António de Gouveia</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Visitador</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Reitor do Colégio de Macau</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4404,17 +4404,17 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>António de Gouveia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Reitor do Colégio de Macau</t>
+          <t>Visitador</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4756,17 +4756,17 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>deh-leonardo-teixeira</t>
+          <t>deh-antonio-da-silva</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Leonardo Teixeira</t>
+          <t>António da Silva</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Superior</t>
+          <t>Reitor de Nanquim</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4788,17 +4788,17 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-da-silva</t>
+          <t>deh-leonardo-teixeira</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>António da Silva</t>
+          <t>Leonardo Teixeira</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Reitor de Nanquim</t>
+          <t>Superior</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5236,12 +5236,12 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5268,12 +5268,12 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5748,17 +5748,17 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Procurador da Vice-província da China</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Vice-visitador do Japão</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5812,17 +5812,17 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Vice-visitador do Japão</t>
+          <t>Procurador da Vice-província da China</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">

--- a/inferences/jesuita-entrada-Coimbra-cargos_tarefas.xlsx
+++ b/inferences/jesuita-entrada-Coimbra-cargos_tarefas.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cargos_tarefas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cargos_tarefas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-francisco-vieira</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Francisco Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Visitador do Japão e da China</t>
+          <t>Procurador</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,27 +500,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-perez</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Francisco Pérez</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Funda uma residência</t>
+          <t>Visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -542,17 +542,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Superior das Índias</t>
+          <t>Funda uma residência</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1552</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -564,17 +564,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-nunes-barreto</t>
+          <t>deh-francisco-perez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Belchior Nunes Barreto</t>
+          <t>Francisco Pérez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vice-provincial das Índias Orientais</t>
+          <t>Superior das Índias</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>1552</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Resgata cativos portugueses</t>
+          <t>Vice-provincial das Índias Orientais</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -628,22 +628,22 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>deh-tiburcio-de-quadros</t>
+          <t>deh-belchior-nunes-barreto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tibúrcio de Quadros</t>
+          <t>Belchior Nunes Barreto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Provincial da Etiópia</t>
+          <t>Resgata cativos portugueses</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -660,27 +660,27 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-nunes-barreto</t>
+          <t>deh-tiburcio-de-quadros</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Belchior Nunes Barreto</t>
+          <t>Tibúrcio de Quadros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Resgata cativos portugueses</t>
+          <t>Provincial da Etiópia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -692,22 +692,22 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>deh-tiburcio-de-quadros</t>
+          <t>deh-belchior-nunes-barreto</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tibúrcio de Quadros</t>
+          <t>Belchior Nunes Barreto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vice-provincial das Índias Orientais</t>
+          <t>Resgata cativos portugueses</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -724,22 +724,22 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-nunes-barreto</t>
+          <t>deh-tiburcio-de-quadros</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Belchior Nunes Barreto</t>
+          <t>Tibúrcio de Quadros</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Funda a missão de Kwangtung</t>
+          <t>Vice-provincial das Índias Orientais</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -756,22 +756,22 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>deh-tiburcio-de-quadros</t>
+          <t>deh-belchior-nunes-barreto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tibúrcio de Quadros</t>
+          <t>Belchior Nunes Barreto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vice-provincial das Índias Orientais</t>
+          <t>Funda a missão de Kwangtung</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Provincial das Índias Orientais</t>
+          <t>Vice-provincial das Índias Orientais</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1559</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Superior da China</t>
+          <t>Provincial das Índias Orientais</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -852,27 +852,27 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-perez</t>
+          <t>deh-tiburcio-de-quadros</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Francisco Pérez</t>
+          <t>Tibúrcio de Quadros</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Funda a residência jesuíta de Macau</t>
+          <t>Superior da China</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1559</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -884,27 +884,27 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-nunes-barreto</t>
+          <t>deh-francisco-perez</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Belchior Nunes Barreto</t>
+          <t>Francisco Pérez</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vice-provincial de Cochim</t>
+          <t>Funda a residência jesuíta de Macau</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -916,17 +916,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-perez</t>
+          <t>deh-belchior-nunes-barreto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Francisco Pérez</t>
+          <t>Belchior Nunes Barreto</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Superior de Macau</t>
+          <t>Vice-provincial de Cochim</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Funda a residência jesuíta de Macau</t>
+          <t>Superior de Macau</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -980,27 +980,27 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-nunes-barreto</t>
+          <t>deh-francisco-perez</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Belchior Nunes Barreto</t>
+          <t>Francisco Pérez</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Visitador da Província da Índia</t>
+          <t>Funda a residência jesuíta de Macau</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1012,17 +1012,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-alvares</t>
+          <t>deh-belchior-nunes-barreto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gonçalo Álvares</t>
+          <t>Belchior Nunes Barreto</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Visitador das Índias e do Japão</t>
+          <t>Visitador da Província da Índia</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1044,27 +1044,27 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>deh-belchior-miguel-carneiro-leitao</t>
+          <t>deh-goncalo-alvares</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Belchior Miguel Carneiro Leitão</t>
+          <t>Gonçalo Álvares</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Funda o hospital de Macau</t>
+          <t>Visitador das Índias e do Japão</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1076,17 +1076,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-alvares</t>
+          <t>deh-belchior-miguel-carneiro-leitao</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gonçalo Álvares</t>
+          <t>Belchior Miguel Carneiro Leitão</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Manda abrir uma escola elementar</t>
+          <t>Funda o hospital de Macau</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1108,22 +1108,22 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>deh-tiburcio-de-quadros</t>
+          <t>deh-goncalo-alvares</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tibúrcio de Quadros</t>
+          <t>Gonçalo Álvares</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Provincial das Índias Orientais</t>
+          <t>Manda abrir uma escola elementar</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Superior da China</t>
+          <t>Provincial das Índias Orientais</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1172,17 +1172,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>deh-cristovao-da-costa</t>
+          <t>deh-tiburcio-de-quadros</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cristóvão da Costa</t>
+          <t>Tibúrcio de Quadros</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Superior de Macau</t>
+          <t>Superior da China</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1204,17 +1204,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>deh-lourenco-mexia</t>
+          <t>deh-cristovao-da-costa</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lourenço Mexia</t>
+          <t>Cristóvão da Costa</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Monitor de Alessandro Valignano</t>
+          <t>Superior de Macau</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Analista das missões da China e do Japão</t>
+          <t>Monitor de Alessandro Valignano</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1579</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>deh-pedro-martins</t>
+          <t>deh-lourenco-mexia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pedro Martins</t>
+          <t>Lourenço Mexia</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Reitor de Goa</t>
+          <t>Analista das missões da China e do Japão</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Provincial das Índias Orientais</t>
+          <t>Reitor de Goa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1364,17 +1364,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>deh-lourenco-mexia</t>
+          <t>deh-pedro-martins</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lourenço Mexia</t>
+          <t>Pedro Martins</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Superior da residência de Macau</t>
+          <t>Provincial das Índias Orientais</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1586</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Analista das missões da China e do Japão</t>
+          <t>Superior da residência de Macau</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1428,17 +1428,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolau-pimenta</t>
+          <t>deh-lourenco-mexia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nicolau Pimenta</t>
+          <t>Lourenço Mexia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Visitador das Índias Orientais</t>
+          <t>Analista das missões da China e do Japão</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>1595</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1524,17 +1524,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>deh-lourenco-mexia</t>
+          <t>deh-nicolau-pimenta</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lourenço Mexia</t>
+          <t>Nicolau Pimenta</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Analista das missões da China e do Japão</t>
+          <t>Visitador das Índias Orientais</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1588,27 +1588,27 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolau-pimenta</t>
+          <t>deh-lourenco-mexia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nicolau Pimenta</t>
+          <t>Lourenço Mexia</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Promotor da missão em África</t>
+          <t>Analista das missões da China e do Japão</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1630,17 +1630,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Visitador das Índias Orientais</t>
+          <t>Promotor da missão em África</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1652,17 +1652,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-gaspar</t>
+          <t>deh-nicolau-pimenta</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Manuel Gaspar</t>
+          <t>Nicolau Pimenta</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Procurador da China e do Japão</t>
+          <t>Visitador das Índias Orientais</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1684,22 +1684,22 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-fernandes</t>
+          <t>deh-manuel-gaspar</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sebastião Fernandes</t>
+          <t>Manuel Gaspar</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Destinado à China</t>
+          <t>Procurador da China e do Japão</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1716,27 +1716,27 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-vieira</t>
+          <t>deh-sebastiao-fernandes</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sebastião Vieira</t>
+          <t>Sebastião Fernandes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mestre dos Noviços</t>
+          <t>Destinado à China</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1748,22 +1748,22 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-sebastiao-vieira</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>Sebastião Vieira</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Carta anual do Japão</t>
+          <t>Mestre dos Noviços</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1844,27 +1844,27 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-ferreira</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gaspar Ferreira</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mestre dos Noviços</t>
+          <t>Carta anual do Japão</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1606</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1876,17 +1876,17 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pacheco</t>
+          <t>deh-gaspar-ferreira</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Francisco Pacheco</t>
+          <t>Gaspar Ferreira</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Reitor do Colégio de Macau</t>
+          <t>Mestre dos Noviços</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1607</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1908,17 +1908,17 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolau-pimenta</t>
+          <t>deh-francisco-pacheco</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nicolau Pimenta</t>
+          <t>Francisco Pacheco</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Visitador das Índias Orientais</t>
+          <t>Reitor do Colégio de Macau</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1940,22 +1940,22 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-francisco-vieira</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>Francisco Vieira</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Carta anual do Japão</t>
+          <t>Provincial de Goa</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2004,27 +2004,27 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-nicolau-pimenta</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>Nicolau Pimenta</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Carta anual do Japão</t>
+          <t>Visitador das Índias Orientais</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2036,27 +2036,27 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pacheco</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Francisco Pacheco</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Reitor do Colégio de Macau</t>
+          <t>Carta anual do Japão</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1610</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2068,27 +2068,27 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>deh-nicolau-pimenta</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nicolau Pimenta</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Visitador das Índias Orientais</t>
+          <t>Carta anual do Japão</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2100,17 +2100,17 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-francisco-pacheco</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Francisco Pacheco</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Visitador das missões</t>
+          <t>Reitor do Colégio de Macau</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2132,17 +2132,17 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-nicolau-pimenta</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Nicolau Pimenta</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Visitador das missões</t>
+          <t>Visitador das Índias Orientais</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2164,27 +2164,27 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Carta anual da China</t>
+          <t>Visitador das missões</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2196,17 +2196,17 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-francisco-vieira</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>Francisco Vieira</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Provincial do Japão e da China</t>
+          <t>Provincial de Goa</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2228,17 +2228,17 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Visitador das províncias do Malabar</t>
+          <t>Visitador das missões</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2260,17 +2260,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-vieira</t>
+          <t>deh-francisco-vieira</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sebastião Vieira</t>
+          <t>Francisco Vieira</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Secretário da Congregação Provincial do Japão</t>
+          <t>Visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Carta anual da Cochichina de 1619</t>
+          <t>Carta anual da China</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1620</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2324,17 +2324,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Visitador das províncias do Malabar</t>
+          <t>Provincial do Japão e da China</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Visitador das províncias de Goa e do Malabar</t>
+          <t>Visitador das províncias do Malabar</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2388,17 +2388,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pacheco</t>
+          <t>deh-sebastiao-vieira</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Francisco Pacheco</t>
+          <t>Sebastião Vieira</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Secretário da Congregação Provincial do Japão</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2420,27 +2420,27 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Provincial do Japão e da China</t>
+          <t>Carta anual da Cochichina de 1619</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1620</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2452,17 +2452,17 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-da-rocha</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>João da Rocha</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Superior da missão da China</t>
+          <t>Visitador das províncias do Malabar</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2484,17 +2484,17 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Visitador das províncias de Goa e do Malabar</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2516,17 +2516,17 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pacheco</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Francisco Pacheco</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Superior da missão da China</t>
+          <t>Provincial do Japão e da China</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2548,27 +2548,27 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-francisco-pacheco</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Francisco Pacheco</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Faz mais de 40000 baptismos no Tonquim</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2580,27 +2580,27 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-joao-da-rocha</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>João da Rocha</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Carta anual da Cochichina de 1622</t>
+          <t>Superior da missão da China</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1622</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2612,17 +2612,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-vieira</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sebastião Vieira</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Procurador da província</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2644,27 +2644,27 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-francisco-pacheco</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>Francisco Pacheco</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Carta anual do Japão</t>
+          <t>Superior da missão da China</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2676,27 +2676,27 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-andrade</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>António de Andrade</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Visitador de Agra</t>
+          <t>Faz mais de 40000 baptismos no Tonquim</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2708,27 +2708,27 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-andrade</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>António de Andrade</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Superior de Agra</t>
+          <t>Carta anual da Cochichina de 1622</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2740,17 +2740,17 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pacheco</t>
+          <t>deh-sebastiao-vieira</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Francisco Pacheco</t>
+          <t>Sebastião Vieira</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Procurador da província</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2772,27 +2772,27 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Visitador das províncias de Goa e do Malabar</t>
+          <t>Carta anual do Japão</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2804,17 +2804,17 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-antonio-de-andrade</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>António de Andrade</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Visitador do Japão e da China</t>
+          <t>Visitador de Agra</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2836,17 +2836,17 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-antonio-de-andrade</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>António de Andrade</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Provincial do Japão e da China</t>
+          <t>Superior de Agra</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2868,27 +2868,27 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>deh-joao-rodrigues-girao</t>
+          <t>deh-francisco-pacheco</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>João Rodrigues Girão</t>
+          <t>Francisco Pacheco</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Carta anual do Japão</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2900,27 +2900,27 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Preside a conferência de Kiating e mostra-se adversário do emprego de T'ien e Chang-ti para designar Deus</t>
+          <t>Provincial do Japão e da China</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2932,27 +2932,27 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-joao-rodrigues-girao</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>João Rodrigues Girão</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Superior da missão do Tonquim</t>
+          <t>Carta anual do Japão</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2964,17 +2964,17 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-andrade</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>António de Andrade</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Provincial de Goa</t>
+          <t>Visitador das províncias de Goa e do Malabar</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2996,17 +2996,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>deh-mateus-de-couros</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mateus de Couros</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Provincial do Japão e da China</t>
+          <t>Visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3028,27 +3028,27 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-vieira</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sebastião Vieira</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Preside a conferência de Kiating e mostra-se adversário do emprego de T'ien e Chang-ti para designar Deus</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3060,17 +3060,17 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-andrade</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>António de Andrade</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Provincial de Goa</t>
+          <t>Superior da missão do Tonquim</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Visitador do Japão e da China</t>
+          <t>Provincial de Goa</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3124,17 +3124,17 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-vieira</t>
+          <t>deh-mateus-de-couros</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sebastião Vieira</t>
+          <t>Mateus de Couros</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Provincial do Japão e da China</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3156,17 +3156,17 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-sebastiao-vieira</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Sebastião Vieira</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3188,17 +3188,17 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-antonio-de-andrade</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>António de Andrade</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Vice-provincial da China do Norte</t>
+          <t>Provincial de Goa</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3220,12 +3220,12 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-palmeiro</t>
+          <t>deh-antonio-de-andrade</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>André Palmeiro</t>
+          <t>António de Andrade</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3252,27 +3252,27 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>deh-gabriel-de-magalhaes</t>
+          <t>deh-sebastiao-vieira</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gabriel de Magalhães</t>
+          <t>Sebastião Vieira</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ensinar Filosofia</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3284,27 +3284,27 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Participa numa consulta sobre a China</t>
+          <t>Vice-provincial da China do Norte</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3316,17 +3316,17 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Vice-provincial da China do Norte</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3348,17 +3348,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-andre-palmeiro</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>André Palmeiro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Superior das seis residências do Norte</t>
+          <t>Visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3380,27 +3380,27 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Ensinar Filosofia</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3412,27 +3412,27 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-da-fonseca</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Gonçalo da Fonseca</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Procurador da Vice-província da China</t>
+          <t>Participa numa consulta sobre a China</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3444,17 +3444,17 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>deh-gaspar-do-amaral</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gaspar do Amaral</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Vice-provincial da China do Norte</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3476,17 +3476,17 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-da-maia</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sebastião da Maia</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Superior das seis residências do Norte</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1641</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3508,17 +3508,17 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Vice-provincial da China do Sul</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1642</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3540,17 +3540,17 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-goncalo-da-fonseca</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Gonçalo da Fonseca</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Superior das residências de Kienning fou etc</t>
+          <t>Procurador da Vice-província da China</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3572,17 +3572,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-gaspar-do-amaral</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Gaspar do Amaral</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Procurador da Vice-província da China</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3636,17 +3636,17 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Vice-provincial da China do Sul</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3668,17 +3668,17 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-furtado</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Francisco Furtado</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Superior das seis residências do Norte</t>
+          <t>Superior das residências de Kienning fou etc</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3700,17 +3700,17 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-da-maia</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sebastião da Maia</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Visitador do Japão e da China</t>
+          <t>Procurador da Vice-província da China</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3732,17 +3732,17 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-sebastiao-da-maia</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Sebastião da Maia</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Vice-reitor do Colégio de Macau</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1649</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3764,17 +3764,17 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-dias-o-novo</t>
+          <t>deh-francisco-furtado</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Manuel Dias, o Novo</t>
+          <t>Francisco Furtado</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Superior das seis residências do Norte</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3796,27 +3796,27 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jorge</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Manuel Jorge</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Escreve a carta anual de 1652-1654</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3828,27 +3828,27 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>deh-gabriel-de-magalhaes</t>
+          <t>deh-sebastiao-da-maia</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Gabriel de Magalhães</t>
+          <t>Sebastião da Maia</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Funda a igreja de Tong-t'ang</t>
+          <t>Visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3860,27 +3860,27 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>deh-andre-ferrao</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>André Ferrão</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Assina a carta anual da vice-província da China de 1656</t>
+          <t>Vice-reitor do Colégio de Macau</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3892,27 +3892,27 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-manuel-dias-o-novo</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Manuel Dias, o Novo</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Assina a carta anual de Hainan</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3924,27 +3924,27 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-da-fonseca</t>
+          <t>deh-manuel-jorge</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Gonçalo da Fonseca</t>
+          <t>Manuel Jorge</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Procurador da Vice-província da China</t>
+          <t>Escreve a carta anual de 1652-1654</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3956,27 +3956,27 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-gabriel-de-magalhaes</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Gabriel de Magalhães</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Funda a igreja de Tong-t'ang</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3988,27 +3988,27 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-andre-ferrao</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>André Ferrão</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Assina a carta anual da vice-província da China de 1656</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4020,27 +4020,27 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>deh-sebastiao-da-maia</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sebastião da Maia</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Visitador do Japão e da China</t>
+          <t>Assina a carta anual de Hainan</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Procurador da Vice-província da China</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4084,17 +4084,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>deh-simao-da-cunha</t>
+          <t>deh-goncalo-da-fonseca</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Simão da Cunha</t>
+          <t>Gonçalo da Fonseca</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Procurador da Vice-província da China</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Visitador do Japão e da China</t>
+          <t>Procurador da Vice-província da China</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4148,17 +4148,17 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>deh-goncalo-da-fonseca</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Gonçalo da Fonseca</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Procurador da Vice-província da China</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4180,27 +4180,27 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-jorge</t>
+          <t>deh-sebastiao-da-maia</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Manuel Jorge</t>
+          <t>Sebastião da Maia</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Constrói a igreja de Nanquim</t>
+          <t>Visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4222,17 +4222,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Atribui o Kwangtung e o Kwangsi à província do Japão</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4276,17 +4276,17 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-goncalo-da-fonseca</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Gonçalo da Fonseca</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Procurador da Vice-província da China</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4308,27 +4308,27 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Atribui o Kwangtung e o Kwangsi à província do Japão</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4340,27 +4340,27 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-manuel-jorge</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Manuel Jorge</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Constrói a igreja de Nanquim</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4372,17 +4372,17 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>deh-matias-da-maia</t>
+          <t>deh-simao-da-cunha</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Matias da Maia</t>
+          <t>Simão da Cunha</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Reitor do Colégio de Macau</t>
+          <t>Visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4404,17 +4404,17 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>António de Gouveia</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Visitador</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4446,17 +4446,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Escreve a carta anual do Japão e da China</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Visitador</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4500,12 +4500,12 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-gouvea</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>António de Gouveia</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4532,17 +4532,17 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-pereira</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tomé (Sancho) Pereira</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vice-visitador do Japão e da China</t>
+          <t>Reitor do Colégio de Macau</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4564,27 +4564,27 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-pereira</t>
+          <t>deh-matias-da-maia</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tomé (Sancho) Pereira</t>
+          <t>Matias da Maia</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Escreve a carta anual do Japão e da China</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4596,17 +4596,17 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>António de Gouveia</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Procurador da Vice-província da China</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4628,27 +4628,27 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-sa</t>
+          <t>deh-antonio-de-gouvea</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Manuel de Sá</t>
+          <t>António de Gouveia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Enviado ao rei</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1672</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4660,17 +4660,17 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-de-sa</t>
+          <t>deh-tome-pereira</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Manuel de Sá</t>
+          <t>Tomé (Sancho) Pereira</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Socius de Francesco Maria Spinola</t>
+          <t>Vice-visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1691</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vice-visitador do Japão e da China</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4724,27 +4724,27 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-pereira</t>
+          <t>deh-manuel-de-sa</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tomé (Sancho) Pereira</t>
+          <t>Manuel de Sá</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Enviado ao rei</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4756,17 +4756,17 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-da-silva</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>António da Silva</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Reitor de Nanquim</t>
+          <t>Procurador da Vice-província da China</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4788,17 +4788,17 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>deh-leonardo-teixeira</t>
+          <t>deh-manuel-de-sa</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Leonardo Teixeira</t>
+          <t>Manuel de Sá</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Superior</t>
+          <t>Socius de Francesco Maria Spinola</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4820,17 +4820,17 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-da-silva</t>
+          <t>deh-tome-pereira</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>António da Silva</t>
+          <t>Tomé (Sancho) Pereira</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Socius do bispo de Nanquim</t>
+          <t>Vice-visitador do Japão e da China</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4852,17 +4852,17 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-tome-pereira</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Tomé (Sancho) Pereira</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4884,17 +4884,17 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-osorio-i</t>
+          <t>deh-antonio-da-silva</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Manuel Osório</t>
+          <t>António da Silva</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Reitor do colégio de Macau</t>
+          <t>Reitor de Nanquim</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4916,17 +4916,17 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-osorio-i</t>
+          <t>deh-leonardo-teixeira</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Manuel Osório</t>
+          <t>Leonardo Teixeira</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Superior</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4948,17 +4948,17 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-antonio-da-silva</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>António da Silva</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Socius do bispo de Nanquim</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4980,27 +4980,27 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>deh-leonardo-teixeira</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Leonardo Teixeira</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sai da Companhia</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Visitador da província de Goa</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Reitor do colégio de Macau</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Procurador da Província do Japão em Macau</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5108,27 +5108,27 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-leonardo-teixeira</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Leonardo Teixeira</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Sai da Companhia</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5172,27 +5172,27 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>deh-tome-pereira</t>
+          <t>deh-manuel-osorio-i</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tomé (Sancho) Pereira</t>
+          <t>Manuel Osório</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Reconstrói o Nan-t'ang</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5204,17 +5204,17 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-manuel-osorio-i</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Manuel Osório</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Visitador da província de Goa</t>
+          <t>Procurador da Província do Japão em Macau</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Visitador da província de Goa</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5300,27 +5300,27 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-da-silva</t>
+          <t>deh-tome-pereira</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>António da Silva</t>
+          <t>Tomé (Sancho) Pereira</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Reconstrói o Nan-t'ang</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5332,17 +5332,17 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Visitador da província de Goa</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5364,17 +5364,17 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-da-silva</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>António da Silva</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5396,17 +5396,17 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>deh-estanislau-machado</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Estanislau Machado</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Superior da missão do Tonquim</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5428,17 +5428,17 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>deh-estanislau-machado</t>
+          <t>deh-antonio-da-silva</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Estanislau Machado</t>
+          <t>António da Silva</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5460,17 +5460,17 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-antonio-da-silva</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>António da Silva</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Procurador do Japão</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5492,17 +5492,17 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>deh-estanislau-machado</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Estanislau Machado</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Superior da missão do Tonquim</t>
+          <t>Vice-provincial da China</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5534,7 +5534,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Superior da missão do Tonquim</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5556,12 +5556,12 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-estanislau-machado</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Estanislau Machado</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5588,17 +5588,17 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Procurador do Japão</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5652,17 +5652,17 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-estanislau-machado</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Estanislau Machado</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Vice-provincial do Japão</t>
+          <t>Superior da missão do Tonquim</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5684,17 +5684,17 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-estanislau-machado</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Estanislau Machado</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Vice-visitador do Japão</t>
+          <t>Provincial do Japão</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5716,17 +5716,17 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>deh-manuel-mendes</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Manuel Mendes</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5748,12 +5748,12 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>deh-francisco-pinto-i</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Francisco Pinto</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Vice-visitador do Japão</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5812,17 +5812,17 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>deh-miguel-do-amaral</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Miguel do Amaral</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Procurador da Vice-província da China</t>
+          <t>Vice-visitador do Japão</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5844,27 +5844,27 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-de-melo</t>
+          <t>deh-miguel-do-amaral</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>António de Melo</t>
+          <t>Miguel do Amaral</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Presta Juramento</t>
+          <t>Procurador da Vice-província da China</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>jesuita-tarefa</t>
+          <t>jesuita-cargo</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5876,12 +5876,12 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-gomes</t>
+          <t>deh-manuel-mendes</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>António Gomes</t>
+          <t>Manuel Mendes</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5908,17 +5908,17 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-montanha-ii</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>José Montanha</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Vice-provincial do Japão</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5940,17 +5940,17 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>deh-antonio-gomes</t>
+          <t>deh-francisco-pinto-i</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>António Gomes</t>
+          <t>Francisco Pinto</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Vice-provincial da China</t>
+          <t>Vice-visitador do Japão</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5972,27 +5972,27 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>deh-jose-montanha-ii</t>
+          <t>deh-antonio-de-melo</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>José Montanha</t>
+          <t>António de Melo</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Provincial do Japão</t>
+          <t>Presta Juramento</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>jesuita-cargo</t>
+          <t>jesuita-tarefa</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>1752</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6004,30 +6004,158 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
+          <t>deh-antonio-gomes</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>António Gomes</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Vice-provincial da China</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>jesuita-cargo</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1748</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
           <t>deh-jose-montanha-ii</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>José Montanha</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Provincial do Japão</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>jesuita-cargo</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>deh-antonio-gomes</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>António Gomes</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Vice-provincial da China</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>jesuita-cargo</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>deh-jose-montanha-ii</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>José Montanha</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Provincial do Japão</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>jesuita-cargo</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>deh-jose-montanha-ii</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>José Montanha</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
         <is>
           <t>Procurador</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>jesuita-cargo</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>jesuita-cargo</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
         <is>
           <t>1753</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>n</t>
         </is>
